--- a/biology/Biologie cellulaire et moléculaire/BCL2L12/BCL2L12.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/BCL2L12/BCL2L12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le BCL2L12 est une protéine appartenant à la famille de Bcl-2. Son gène, BCL2L12 est situé sur le chromosome 19 humain.
 </t>
@@ -511,11 +523,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est activé par le PAR2[5] et le facteur de nécrose tumorale[6], permettant l'inhibition de l'expression de l'interleukine 10 par les lymphocytes B.
-Il a un rôle de facilitateur tumoral en inhibant le p53[7].
-Il est exprimé par les lymphocytes CD4+ au cours d'une myocardite, permettant une augmentation de l'expression de l'interleukine 4[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est activé par le PAR2 et le facteur de nécrose tumorale, permettant l'inhibition de l'expression de l'interleukine 10 par les lymphocytes B.
+Il a un rôle de facilitateur tumoral en inhibant le p53.
+Il est exprimé par les lymphocytes CD4+ au cours d'une myocardite, permettant une augmentation de l'expression de l'interleukine 4.
 </t>
         </is>
       </c>
